--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leticia.silva\Desktop\contador_tempo_filiacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9064AF0E-6160-49A1-89A5-3863E6662D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E7068-4029-4510-A6E4-C80825CAC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Nome:</t>
-  </si>
-  <si>
-    <t>CPF:</t>
-  </si>
-  <si>
-    <t>Data de Nascimento:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>06171692255</t>
   </si>
@@ -61,22 +52,10 @@
     <t>02368704248</t>
   </si>
   <si>
-    <t xml:space="preserve">Data de Cadastro </t>
-  </si>
-  <si>
     <t>87906543127</t>
   </si>
   <si>
-    <t>53219874600</t>
-  </si>
-  <si>
-    <t>68543210987</t>
-  </si>
-  <si>
     <t>12345678901</t>
-  </si>
-  <si>
-    <t>98765432109</t>
   </si>
   <si>
     <t>Laura Santos</t>
@@ -101,6 +80,45 @@
   </si>
   <si>
     <t>Camila Rodrigues</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Carimbo de data/hora</t>
+  </si>
+  <si>
+    <t>Nome completo</t>
+  </si>
+  <si>
+    <t>Data de nascimento</t>
+  </si>
+  <si>
+    <t>Faculdade</t>
+  </si>
+  <si>
+    <t>Matricula</t>
+  </si>
+  <si>
+    <t>Comprovante de pagamento</t>
+  </si>
+  <si>
+    <t>Leticia Ketlyn Martins Da silva</t>
+  </si>
+  <si>
+    <t>UNIMETA</t>
+  </si>
+  <si>
+    <t>1234567891234</t>
+  </si>
+  <si>
+    <t>68546816287</t>
+  </si>
+  <si>
+    <t>53299128600</t>
+  </si>
+  <si>
+    <t>80258232109</t>
   </si>
 </sst>
 </file>
@@ -139,14 +157,14 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +183,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -181,16 +205,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,7 +247,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -227,17 +261,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -249,26 +273,94 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,3850 +579,3866 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H999"/>
+  <dimension ref="A1:I996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="47" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>12345678978</v>
+      </c>
+      <c r="B2" s="49">
+        <v>45418</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="17">
+        <v>37623</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45387</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45328</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45298</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45146</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45269</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45361</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="E8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45366</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="26">
-        <v>45387</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45370</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26">
-        <v>45328</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="26">
-        <v>45298</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="26">
-        <v>45146</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="26">
-        <v>45269</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="26">
-        <v>45361</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="26">
-        <v>45366</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="26">
-        <v>45370</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="D10" s="19">
         <v>37351</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="4"/>
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="4"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="4"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="4"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="4"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="4"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="4"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="4"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="4"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="4"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="11"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="4"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="4"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="13"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="4"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="4"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="4"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="4"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="4"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="4"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="13"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="11"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="11"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="4"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="4"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="4"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="4"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="4"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="4"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="4"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="4"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="4"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="14"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="4"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="4"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="4"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="14"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="4"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="4"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="13"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="4"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="4"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="4"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="4"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="13"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="14"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="4"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="4"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="4"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="4"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="13"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="4"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="4"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="4"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="14"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="14"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="11"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="4"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="11"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="4"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="4"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="14"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="4"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="4"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="4"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="4"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="4"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="2"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="4"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="4"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="4"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="4"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="4"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="2"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="4"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="2"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="4"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="4"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="2"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="4"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="2"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="4"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="2"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="4"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="46"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="46"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="46"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="12"/>
+      <c r="C110" s="46"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="12"/>
+      <c r="C111" s="46"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="12"/>
+      <c r="C112" s="46"/>
     </row>
     <row r="113" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="12"/>
+      <c r="C113" s="46"/>
     </row>
     <row r="114" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="12"/>
+      <c r="C114" s="46"/>
     </row>
     <row r="115" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="12"/>
+      <c r="C115" s="46"/>
     </row>
     <row r="116" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="12"/>
+      <c r="C116" s="46"/>
     </row>
     <row r="117" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="12"/>
+      <c r="C117" s="46"/>
     </row>
     <row r="118" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="12"/>
+      <c r="C118" s="46"/>
     </row>
     <row r="119" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="12"/>
+      <c r="C119" s="46"/>
     </row>
     <row r="120" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="12"/>
+      <c r="C120" s="46"/>
     </row>
     <row r="121" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="12"/>
+      <c r="C121" s="46"/>
     </row>
     <row r="122" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="12"/>
+      <c r="C122" s="46"/>
     </row>
     <row r="123" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="12"/>
+      <c r="C123" s="46"/>
     </row>
     <row r="124" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="12"/>
+      <c r="C124" s="46"/>
     </row>
     <row r="125" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="12"/>
+      <c r="C125" s="46"/>
     </row>
     <row r="126" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="12"/>
+      <c r="C126" s="46"/>
     </row>
     <row r="127" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C127" s="12"/>
+      <c r="C127" s="46"/>
     </row>
     <row r="128" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="12"/>
+      <c r="C128" s="46"/>
     </row>
     <row r="129" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C129" s="12"/>
+      <c r="C129" s="46"/>
     </row>
     <row r="130" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="12"/>
+      <c r="C130" s="46"/>
     </row>
     <row r="131" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="12"/>
+      <c r="C131" s="46"/>
     </row>
     <row r="132" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="12"/>
+      <c r="C132" s="46"/>
     </row>
     <row r="133" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="12"/>
+      <c r="C133" s="46"/>
     </row>
     <row r="134" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="12"/>
+      <c r="C134" s="46"/>
     </row>
     <row r="135" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="12"/>
+      <c r="C135" s="46"/>
     </row>
     <row r="136" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="12"/>
+      <c r="C136" s="46"/>
     </row>
     <row r="137" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="12"/>
+      <c r="C137" s="46"/>
     </row>
     <row r="138" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="12"/>
+      <c r="C138" s="46"/>
     </row>
     <row r="139" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="12"/>
+      <c r="C139" s="46"/>
     </row>
     <row r="140" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="12"/>
+      <c r="C140" s="46"/>
     </row>
     <row r="141" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="12"/>
+      <c r="C141" s="46"/>
     </row>
     <row r="142" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C142" s="12"/>
+      <c r="C142" s="46"/>
     </row>
     <row r="143" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C143" s="12"/>
+      <c r="C143" s="46"/>
     </row>
     <row r="144" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="12"/>
+      <c r="C144" s="46"/>
     </row>
     <row r="145" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C145" s="12"/>
+      <c r="C145" s="46"/>
     </row>
     <row r="146" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C146" s="12"/>
+      <c r="C146" s="46"/>
     </row>
     <row r="147" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C147" s="12"/>
+      <c r="C147" s="46"/>
     </row>
     <row r="148" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C148" s="12"/>
+      <c r="C148" s="46"/>
     </row>
     <row r="149" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C149" s="12"/>
+      <c r="C149" s="46"/>
     </row>
     <row r="150" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C150" s="12"/>
+      <c r="C150" s="46"/>
     </row>
     <row r="151" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C151" s="12"/>
+      <c r="C151" s="46"/>
     </row>
     <row r="152" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="12"/>
+      <c r="C152" s="46"/>
     </row>
     <row r="153" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C153" s="12"/>
+      <c r="C153" s="46"/>
     </row>
     <row r="154" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C154" s="12"/>
+      <c r="C154" s="46"/>
     </row>
     <row r="155" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C155" s="12"/>
+      <c r="C155" s="46"/>
     </row>
     <row r="156" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C156" s="12"/>
+      <c r="C156" s="46"/>
     </row>
     <row r="157" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C157" s="12"/>
+      <c r="C157" s="46"/>
     </row>
     <row r="158" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C158" s="12"/>
+      <c r="C158" s="46"/>
     </row>
     <row r="159" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C159" s="12"/>
+      <c r="C159" s="46"/>
     </row>
     <row r="160" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="12"/>
+      <c r="C160" s="46"/>
     </row>
     <row r="161" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="12"/>
+      <c r="C161" s="46"/>
     </row>
     <row r="162" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C162" s="12"/>
+      <c r="C162" s="46"/>
     </row>
     <row r="163" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C163" s="12"/>
+      <c r="C163" s="46"/>
     </row>
     <row r="164" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C164" s="12"/>
+      <c r="C164" s="46"/>
     </row>
     <row r="165" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C165" s="12"/>
+      <c r="C165" s="46"/>
     </row>
     <row r="166" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="12"/>
+      <c r="C166" s="46"/>
     </row>
     <row r="167" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C167" s="12"/>
+      <c r="C167" s="46"/>
     </row>
     <row r="168" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="12"/>
+      <c r="C168" s="46"/>
     </row>
     <row r="169" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C169" s="12"/>
+      <c r="C169" s="46"/>
     </row>
     <row r="170" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C170" s="12"/>
+      <c r="C170" s="46"/>
     </row>
     <row r="171" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C171" s="12"/>
+      <c r="C171" s="46"/>
     </row>
     <row r="172" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="12"/>
+      <c r="C172" s="46"/>
     </row>
     <row r="173" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C173" s="12"/>
+      <c r="C173" s="46"/>
     </row>
     <row r="174" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C174" s="12"/>
+      <c r="C174" s="46"/>
     </row>
     <row r="175" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C175" s="12"/>
+      <c r="C175" s="46"/>
     </row>
     <row r="176" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="12"/>
+      <c r="C176" s="46"/>
     </row>
     <row r="177" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C177" s="12"/>
+      <c r="C177" s="46"/>
     </row>
     <row r="178" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C178" s="12"/>
+      <c r="C178" s="46"/>
     </row>
     <row r="179" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C179" s="12"/>
+      <c r="C179" s="46"/>
     </row>
     <row r="180" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C180" s="12"/>
+      <c r="C180" s="46"/>
     </row>
     <row r="181" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C181" s="12"/>
+      <c r="C181" s="46"/>
     </row>
     <row r="182" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C182" s="12"/>
+      <c r="C182" s="46"/>
     </row>
     <row r="183" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C183" s="12"/>
+      <c r="C183" s="46"/>
     </row>
     <row r="184" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="12"/>
+      <c r="C184" s="46"/>
     </row>
     <row r="185" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C185" s="12"/>
+      <c r="C185" s="46"/>
     </row>
     <row r="186" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C186" s="12"/>
+      <c r="C186" s="46"/>
     </row>
     <row r="187" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C187" s="12"/>
+      <c r="C187" s="46"/>
     </row>
     <row r="188" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C188" s="12"/>
+      <c r="C188" s="46"/>
     </row>
     <row r="189" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C189" s="12"/>
+      <c r="C189" s="46"/>
     </row>
     <row r="190" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C190" s="12"/>
+      <c r="C190" s="46"/>
     </row>
     <row r="191" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C191" s="12"/>
+      <c r="C191" s="46"/>
     </row>
     <row r="192" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="12"/>
+      <c r="C192" s="46"/>
     </row>
     <row r="193" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C193" s="12"/>
+      <c r="C193" s="46"/>
     </row>
     <row r="194" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C194" s="12"/>
+      <c r="C194" s="46"/>
     </row>
     <row r="195" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="12"/>
+      <c r="C195" s="46"/>
     </row>
     <row r="196" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="12"/>
+      <c r="C196" s="46"/>
     </row>
     <row r="197" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C197" s="12"/>
+      <c r="C197" s="46"/>
     </row>
     <row r="198" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C198" s="12"/>
+      <c r="C198" s="46"/>
     </row>
     <row r="199" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C199" s="12"/>
+      <c r="C199" s="46"/>
     </row>
     <row r="200" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="12"/>
+      <c r="C200" s="46"/>
     </row>
     <row r="201" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C201" s="12"/>
+      <c r="C201" s="46"/>
     </row>
     <row r="202" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C202" s="12"/>
+      <c r="C202" s="46"/>
     </row>
     <row r="203" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C203" s="12"/>
+      <c r="C203" s="46"/>
     </row>
     <row r="204" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C204" s="12"/>
+      <c r="C204" s="46"/>
     </row>
     <row r="205" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C205" s="12"/>
+      <c r="C205" s="46"/>
     </row>
     <row r="206" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C206" s="12"/>
+      <c r="C206" s="46"/>
     </row>
     <row r="207" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C207" s="12"/>
+      <c r="C207" s="46"/>
     </row>
     <row r="208" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="12"/>
+      <c r="C208" s="46"/>
     </row>
     <row r="209" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="12"/>
+      <c r="C209" s="46"/>
     </row>
     <row r="210" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C210" s="12"/>
+      <c r="C210" s="46"/>
     </row>
     <row r="211" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C211" s="12"/>
+      <c r="C211" s="46"/>
     </row>
     <row r="212" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C212" s="12"/>
+      <c r="C212" s="46"/>
     </row>
     <row r="213" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C213" s="12"/>
+      <c r="C213" s="46"/>
     </row>
     <row r="214" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C214" s="12"/>
+      <c r="C214" s="46"/>
     </row>
     <row r="215" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C215" s="12"/>
+      <c r="C215" s="46"/>
     </row>
     <row r="216" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C216" s="12"/>
+      <c r="C216" s="46"/>
     </row>
     <row r="217" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C217" s="12"/>
+      <c r="C217" s="46"/>
     </row>
     <row r="218" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C218" s="12"/>
+      <c r="C218" s="46"/>
     </row>
     <row r="219" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C219" s="12"/>
+      <c r="C219" s="46"/>
     </row>
     <row r="220" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C220" s="12"/>
+      <c r="C220" s="46"/>
     </row>
     <row r="221" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C221" s="12"/>
+      <c r="C221" s="46"/>
     </row>
     <row r="222" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C222" s="12"/>
+      <c r="C222" s="46"/>
     </row>
     <row r="223" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C223" s="12"/>
+      <c r="C223" s="46"/>
     </row>
     <row r="224" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C224" s="12"/>
+      <c r="C224" s="46"/>
     </row>
     <row r="225" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C225" s="12"/>
+      <c r="C225" s="46"/>
     </row>
     <row r="226" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C226" s="12"/>
+      <c r="C226" s="46"/>
     </row>
     <row r="227" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C227" s="12"/>
+      <c r="C227" s="46"/>
     </row>
     <row r="228" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C228" s="12"/>
+      <c r="C228" s="46"/>
     </row>
     <row r="229" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C229" s="12"/>
+      <c r="C229" s="46"/>
     </row>
     <row r="230" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C230" s="12"/>
+      <c r="C230" s="46"/>
     </row>
     <row r="231" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C231" s="12"/>
+      <c r="C231" s="46"/>
     </row>
     <row r="232" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C232" s="12"/>
+      <c r="C232" s="46"/>
     </row>
     <row r="233" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C233" s="12"/>
+      <c r="C233" s="46"/>
     </row>
     <row r="234" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C234" s="12"/>
+      <c r="C234" s="46"/>
     </row>
     <row r="235" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C235" s="12"/>
+      <c r="C235" s="46"/>
     </row>
     <row r="236" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C236" s="12"/>
+      <c r="C236" s="46"/>
     </row>
     <row r="237" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C237" s="12"/>
+      <c r="C237" s="46"/>
     </row>
     <row r="238" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C238" s="12"/>
+      <c r="C238" s="46"/>
     </row>
     <row r="239" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C239" s="12"/>
+      <c r="C239" s="46"/>
     </row>
     <row r="240" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C240" s="12"/>
+      <c r="C240" s="46"/>
     </row>
     <row r="241" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C241" s="12"/>
+      <c r="C241" s="46"/>
     </row>
     <row r="242" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C242" s="12"/>
+      <c r="C242" s="46"/>
     </row>
     <row r="243" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C243" s="12"/>
+      <c r="C243" s="46"/>
     </row>
     <row r="244" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C244" s="12"/>
+      <c r="C244" s="46"/>
     </row>
     <row r="245" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C245" s="12"/>
+      <c r="C245" s="46"/>
     </row>
     <row r="246" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C246" s="12"/>
+      <c r="C246" s="46"/>
     </row>
     <row r="247" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C247" s="12"/>
+      <c r="C247" s="46"/>
     </row>
     <row r="248" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C248" s="12"/>
+      <c r="C248" s="46"/>
     </row>
     <row r="249" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C249" s="12"/>
+      <c r="C249" s="46"/>
     </row>
     <row r="250" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C250" s="12"/>
+      <c r="C250" s="46"/>
     </row>
     <row r="251" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C251" s="12"/>
+      <c r="C251" s="46"/>
     </row>
     <row r="252" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C252" s="12"/>
+      <c r="C252" s="46"/>
     </row>
     <row r="253" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C253" s="12"/>
+      <c r="C253" s="46"/>
     </row>
     <row r="254" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C254" s="12"/>
+      <c r="C254" s="46"/>
     </row>
     <row r="255" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C255" s="12"/>
+      <c r="C255" s="46"/>
     </row>
     <row r="256" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C256" s="12"/>
+      <c r="C256" s="46"/>
     </row>
     <row r="257" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C257" s="12"/>
+      <c r="C257" s="46"/>
     </row>
     <row r="258" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C258" s="12"/>
+      <c r="C258" s="46"/>
     </row>
     <row r="259" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C259" s="12"/>
+      <c r="C259" s="46"/>
     </row>
     <row r="260" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C260" s="12"/>
+      <c r="C260" s="46"/>
     </row>
     <row r="261" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C261" s="12"/>
+      <c r="C261" s="46"/>
     </row>
     <row r="262" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C262" s="12"/>
+      <c r="C262" s="46"/>
     </row>
     <row r="263" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C263" s="12"/>
+      <c r="C263" s="46"/>
     </row>
     <row r="264" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C264" s="12"/>
+      <c r="C264" s="46"/>
     </row>
     <row r="265" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C265" s="12"/>
+      <c r="C265" s="46"/>
     </row>
     <row r="266" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C266" s="12"/>
+      <c r="C266" s="46"/>
     </row>
     <row r="267" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C267" s="12"/>
+      <c r="C267" s="46"/>
     </row>
     <row r="268" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C268" s="12"/>
+      <c r="C268" s="46"/>
     </row>
     <row r="269" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C269" s="12"/>
+      <c r="C269" s="46"/>
     </row>
     <row r="270" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C270" s="12"/>
+      <c r="C270" s="46"/>
     </row>
     <row r="271" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C271" s="12"/>
+      <c r="C271" s="46"/>
     </row>
     <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C272" s="12"/>
+      <c r="C272" s="46"/>
     </row>
     <row r="273" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C273" s="12"/>
+      <c r="C273" s="46"/>
     </row>
     <row r="274" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C274" s="12"/>
+      <c r="C274" s="46"/>
     </row>
     <row r="275" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C275" s="12"/>
+      <c r="C275" s="46"/>
     </row>
     <row r="276" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C276" s="12"/>
+      <c r="C276" s="46"/>
     </row>
     <row r="277" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C277" s="12"/>
+      <c r="C277" s="46"/>
     </row>
     <row r="278" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C278" s="12"/>
+      <c r="C278" s="46"/>
     </row>
     <row r="279" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C279" s="12"/>
+      <c r="C279" s="46"/>
     </row>
     <row r="280" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C280" s="12"/>
+      <c r="C280" s="46"/>
     </row>
     <row r="281" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C281" s="12"/>
+      <c r="C281" s="46"/>
     </row>
     <row r="282" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C282" s="12"/>
+      <c r="C282" s="46"/>
     </row>
     <row r="283" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C283" s="12"/>
+      <c r="C283" s="46"/>
     </row>
     <row r="284" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C284" s="12"/>
+      <c r="C284" s="46"/>
     </row>
     <row r="285" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C285" s="12"/>
+      <c r="C285" s="46"/>
     </row>
     <row r="286" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C286" s="12"/>
+      <c r="C286" s="46"/>
     </row>
     <row r="287" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C287" s="12"/>
+      <c r="C287" s="46"/>
     </row>
     <row r="288" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C288" s="12"/>
+      <c r="C288" s="46"/>
     </row>
     <row r="289" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C289" s="12"/>
+      <c r="C289" s="46"/>
     </row>
     <row r="290" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C290" s="12"/>
+      <c r="C290" s="46"/>
     </row>
     <row r="291" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C291" s="12"/>
+      <c r="C291" s="46"/>
     </row>
     <row r="292" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C292" s="12"/>
+      <c r="C292" s="46"/>
     </row>
     <row r="293" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C293" s="12"/>
+      <c r="C293" s="46"/>
     </row>
     <row r="294" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C294" s="12"/>
+      <c r="C294" s="46"/>
     </row>
     <row r="295" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C295" s="12"/>
+      <c r="C295" s="46"/>
     </row>
     <row r="296" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C296" s="12"/>
+      <c r="C296" s="46"/>
     </row>
     <row r="297" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C297" s="12"/>
+      <c r="C297" s="46"/>
     </row>
     <row r="298" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C298" s="12"/>
+      <c r="C298" s="46"/>
     </row>
     <row r="299" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C299" s="12"/>
+      <c r="C299" s="46"/>
     </row>
     <row r="300" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C300" s="12"/>
+      <c r="C300" s="46"/>
     </row>
     <row r="301" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C301" s="12"/>
+      <c r="C301" s="46"/>
     </row>
     <row r="302" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C302" s="12"/>
+      <c r="C302" s="46"/>
     </row>
     <row r="303" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C303" s="12"/>
+      <c r="C303" s="46"/>
     </row>
     <row r="304" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C304" s="12"/>
+      <c r="C304" s="46"/>
     </row>
     <row r="305" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C305" s="12"/>
+      <c r="C305" s="46"/>
     </row>
     <row r="306" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C306" s="12"/>
+      <c r="C306" s="46"/>
     </row>
     <row r="307" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C307" s="12"/>
+      <c r="C307" s="46"/>
     </row>
     <row r="308" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C308" s="12"/>
+      <c r="C308" s="46"/>
     </row>
     <row r="309" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C309" s="12"/>
+      <c r="C309" s="46"/>
     </row>
     <row r="310" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C310" s="12"/>
+      <c r="C310" s="46"/>
     </row>
     <row r="311" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C311" s="12"/>
+      <c r="C311" s="46"/>
     </row>
     <row r="312" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C312" s="12"/>
+      <c r="C312" s="46"/>
     </row>
     <row r="313" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C313" s="12"/>
+      <c r="C313" s="46"/>
     </row>
     <row r="314" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C314" s="12"/>
+      <c r="C314" s="46"/>
     </row>
     <row r="315" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C315" s="12"/>
+      <c r="C315" s="46"/>
     </row>
     <row r="316" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C316" s="12"/>
+      <c r="C316" s="46"/>
     </row>
     <row r="317" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C317" s="12"/>
+      <c r="C317" s="46"/>
     </row>
     <row r="318" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C318" s="12"/>
+      <c r="C318" s="46"/>
     </row>
     <row r="319" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C319" s="12"/>
+      <c r="C319" s="46"/>
     </row>
     <row r="320" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C320" s="12"/>
+      <c r="C320" s="46"/>
     </row>
     <row r="321" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C321" s="12"/>
+      <c r="C321" s="46"/>
     </row>
     <row r="322" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C322" s="12"/>
+      <c r="C322" s="46"/>
     </row>
     <row r="323" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C323" s="12"/>
+      <c r="C323" s="46"/>
     </row>
     <row r="324" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C324" s="12"/>
+      <c r="C324" s="46"/>
     </row>
     <row r="325" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C325" s="12"/>
+      <c r="C325" s="46"/>
     </row>
     <row r="326" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C326" s="12"/>
+      <c r="C326" s="46"/>
     </row>
     <row r="327" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C327" s="12"/>
+      <c r="C327" s="46"/>
     </row>
     <row r="328" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C328" s="12"/>
+      <c r="C328" s="46"/>
     </row>
     <row r="329" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C329" s="12"/>
+      <c r="C329" s="46"/>
     </row>
     <row r="330" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C330" s="12"/>
+      <c r="C330" s="46"/>
     </row>
     <row r="331" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C331" s="12"/>
+      <c r="C331" s="46"/>
     </row>
     <row r="332" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C332" s="12"/>
+      <c r="C332" s="46"/>
     </row>
     <row r="333" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C333" s="12"/>
+      <c r="C333" s="46"/>
     </row>
     <row r="334" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C334" s="12"/>
+      <c r="C334" s="46"/>
     </row>
     <row r="335" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C335" s="12"/>
+      <c r="C335" s="46"/>
     </row>
     <row r="336" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C336" s="12"/>
+      <c r="C336" s="46"/>
     </row>
     <row r="337" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C337" s="12"/>
+      <c r="C337" s="46"/>
     </row>
     <row r="338" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C338" s="12"/>
+      <c r="C338" s="46"/>
     </row>
     <row r="339" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C339" s="12"/>
+      <c r="C339" s="46"/>
     </row>
     <row r="340" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C340" s="12"/>
+      <c r="C340" s="46"/>
     </row>
     <row r="341" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C341" s="12"/>
+      <c r="C341" s="46"/>
     </row>
     <row r="342" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C342" s="12"/>
+      <c r="C342" s="46"/>
     </row>
     <row r="343" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C343" s="12"/>
+      <c r="C343" s="46"/>
     </row>
     <row r="344" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C344" s="12"/>
+      <c r="C344" s="46"/>
     </row>
     <row r="345" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C345" s="12"/>
+      <c r="C345" s="46"/>
     </row>
     <row r="346" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C346" s="12"/>
+      <c r="C346" s="46"/>
     </row>
     <row r="347" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C347" s="12"/>
+      <c r="C347" s="46"/>
     </row>
     <row r="348" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C348" s="12"/>
+      <c r="C348" s="46"/>
     </row>
     <row r="349" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C349" s="12"/>
+      <c r="C349" s="46"/>
     </row>
     <row r="350" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C350" s="12"/>
+      <c r="C350" s="46"/>
     </row>
     <row r="351" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C351" s="12"/>
+      <c r="C351" s="46"/>
     </row>
     <row r="352" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C352" s="12"/>
+      <c r="C352" s="46"/>
     </row>
     <row r="353" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C353" s="12"/>
+      <c r="C353" s="46"/>
     </row>
     <row r="354" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C354" s="12"/>
+      <c r="C354" s="46"/>
     </row>
     <row r="355" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C355" s="12"/>
+      <c r="C355" s="46"/>
     </row>
     <row r="356" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C356" s="12"/>
+      <c r="C356" s="46"/>
     </row>
     <row r="357" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C357" s="12"/>
+      <c r="C357" s="46"/>
     </row>
     <row r="358" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C358" s="12"/>
+      <c r="C358" s="46"/>
     </row>
     <row r="359" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C359" s="12"/>
+      <c r="C359" s="46"/>
     </row>
     <row r="360" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C360" s="12"/>
+      <c r="C360" s="46"/>
     </row>
     <row r="361" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C361" s="12"/>
+      <c r="C361" s="46"/>
     </row>
     <row r="362" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C362" s="12"/>
+      <c r="C362" s="46"/>
     </row>
     <row r="363" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C363" s="12"/>
+      <c r="C363" s="46"/>
     </row>
     <row r="364" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C364" s="12"/>
+      <c r="C364" s="46"/>
     </row>
     <row r="365" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C365" s="12"/>
+      <c r="C365" s="46"/>
     </row>
     <row r="366" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C366" s="12"/>
+      <c r="C366" s="46"/>
     </row>
     <row r="367" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C367" s="12"/>
+      <c r="C367" s="46"/>
     </row>
     <row r="368" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C368" s="12"/>
+      <c r="C368" s="46"/>
     </row>
     <row r="369" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C369" s="12"/>
+      <c r="C369" s="46"/>
     </row>
     <row r="370" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C370" s="12"/>
+      <c r="C370" s="46"/>
     </row>
     <row r="371" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C371" s="12"/>
+      <c r="C371" s="46"/>
     </row>
     <row r="372" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C372" s="12"/>
+      <c r="C372" s="46"/>
     </row>
     <row r="373" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C373" s="12"/>
+      <c r="C373" s="46"/>
     </row>
     <row r="374" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C374" s="12"/>
+      <c r="C374" s="46"/>
     </row>
     <row r="375" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C375" s="12"/>
+      <c r="C375" s="46"/>
     </row>
     <row r="376" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C376" s="12"/>
+      <c r="C376" s="46"/>
     </row>
     <row r="377" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C377" s="12"/>
+      <c r="C377" s="46"/>
     </row>
     <row r="378" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C378" s="12"/>
+      <c r="C378" s="46"/>
     </row>
     <row r="379" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C379" s="12"/>
+      <c r="C379" s="46"/>
     </row>
     <row r="380" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C380" s="12"/>
+      <c r="C380" s="46"/>
     </row>
     <row r="381" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C381" s="12"/>
+      <c r="C381" s="46"/>
     </row>
     <row r="382" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C382" s="12"/>
+      <c r="C382" s="46"/>
     </row>
     <row r="383" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C383" s="12"/>
+      <c r="C383" s="46"/>
     </row>
     <row r="384" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C384" s="12"/>
+      <c r="C384" s="46"/>
     </row>
     <row r="385" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C385" s="12"/>
+      <c r="C385" s="46"/>
     </row>
     <row r="386" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C386" s="12"/>
+      <c r="C386" s="46"/>
     </row>
     <row r="387" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C387" s="12"/>
+      <c r="C387" s="46"/>
     </row>
     <row r="388" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C388" s="12"/>
+      <c r="C388" s="46"/>
     </row>
     <row r="389" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C389" s="12"/>
+      <c r="C389" s="46"/>
     </row>
     <row r="390" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C390" s="12"/>
+      <c r="C390" s="46"/>
     </row>
     <row r="391" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C391" s="12"/>
+      <c r="C391" s="46"/>
     </row>
     <row r="392" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C392" s="12"/>
+      <c r="C392" s="46"/>
     </row>
     <row r="393" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C393" s="12"/>
+      <c r="C393" s="46"/>
     </row>
     <row r="394" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C394" s="12"/>
+      <c r="C394" s="46"/>
     </row>
     <row r="395" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C395" s="12"/>
+      <c r="C395" s="46"/>
     </row>
     <row r="396" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C396" s="12"/>
+      <c r="C396" s="46"/>
     </row>
     <row r="397" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C397" s="12"/>
+      <c r="C397" s="46"/>
     </row>
     <row r="398" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C398" s="12"/>
+      <c r="C398" s="46"/>
     </row>
     <row r="399" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C399" s="12"/>
+      <c r="C399" s="46"/>
     </row>
     <row r="400" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C400" s="12"/>
+      <c r="C400" s="46"/>
     </row>
     <row r="401" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C401" s="12"/>
+      <c r="C401" s="46"/>
     </row>
     <row r="402" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C402" s="12"/>
+      <c r="C402" s="46"/>
     </row>
     <row r="403" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C403" s="12"/>
+      <c r="C403" s="46"/>
     </row>
     <row r="404" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C404" s="12"/>
+      <c r="C404" s="46"/>
     </row>
     <row r="405" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C405" s="12"/>
+      <c r="C405" s="46"/>
     </row>
     <row r="406" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C406" s="12"/>
+      <c r="C406" s="46"/>
     </row>
     <row r="407" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C407" s="12"/>
+      <c r="C407" s="46"/>
     </row>
     <row r="408" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C408" s="12"/>
+      <c r="C408" s="46"/>
     </row>
     <row r="409" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C409" s="12"/>
+      <c r="C409" s="46"/>
     </row>
     <row r="410" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C410" s="12"/>
+      <c r="C410" s="46"/>
     </row>
     <row r="411" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C411" s="12"/>
+      <c r="C411" s="46"/>
     </row>
     <row r="412" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C412" s="12"/>
+      <c r="C412" s="46"/>
     </row>
     <row r="413" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C413" s="12"/>
+      <c r="C413" s="46"/>
     </row>
     <row r="414" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C414" s="12"/>
+      <c r="C414" s="46"/>
     </row>
     <row r="415" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C415" s="12"/>
+      <c r="C415" s="46"/>
     </row>
     <row r="416" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C416" s="12"/>
+      <c r="C416" s="46"/>
     </row>
     <row r="417" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C417" s="12"/>
+      <c r="C417" s="46"/>
     </row>
     <row r="418" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C418" s="12"/>
+      <c r="C418" s="46"/>
     </row>
     <row r="419" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C419" s="12"/>
+      <c r="C419" s="46"/>
     </row>
     <row r="420" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C420" s="12"/>
+      <c r="C420" s="46"/>
     </row>
     <row r="421" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C421" s="12"/>
+      <c r="C421" s="46"/>
     </row>
     <row r="422" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C422" s="12"/>
+      <c r="C422" s="46"/>
     </row>
     <row r="423" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C423" s="12"/>
+      <c r="C423" s="46"/>
     </row>
     <row r="424" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C424" s="12"/>
+      <c r="C424" s="46"/>
     </row>
     <row r="425" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C425" s="12"/>
+      <c r="C425" s="46"/>
     </row>
     <row r="426" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C426" s="12"/>
+      <c r="C426" s="46"/>
     </row>
     <row r="427" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C427" s="12"/>
+      <c r="C427" s="46"/>
     </row>
     <row r="428" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C428" s="12"/>
+      <c r="C428" s="46"/>
     </row>
     <row r="429" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C429" s="12"/>
+      <c r="C429" s="46"/>
     </row>
     <row r="430" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C430" s="12"/>
+      <c r="C430" s="46"/>
     </row>
     <row r="431" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C431" s="12"/>
+      <c r="C431" s="46"/>
     </row>
     <row r="432" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C432" s="12"/>
+      <c r="C432" s="46"/>
     </row>
     <row r="433" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C433" s="12"/>
+      <c r="C433" s="46"/>
     </row>
     <row r="434" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C434" s="12"/>
+      <c r="C434" s="46"/>
     </row>
     <row r="435" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C435" s="12"/>
+      <c r="C435" s="46"/>
     </row>
     <row r="436" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C436" s="12"/>
+      <c r="C436" s="46"/>
     </row>
     <row r="437" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C437" s="12"/>
+      <c r="C437" s="46"/>
     </row>
     <row r="438" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C438" s="12"/>
+      <c r="C438" s="46"/>
     </row>
     <row r="439" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C439" s="12"/>
+      <c r="C439" s="46"/>
     </row>
     <row r="440" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C440" s="12"/>
+      <c r="C440" s="46"/>
     </row>
     <row r="441" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C441" s="12"/>
+      <c r="C441" s="46"/>
     </row>
     <row r="442" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C442" s="12"/>
+      <c r="C442" s="46"/>
     </row>
     <row r="443" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C443" s="12"/>
+      <c r="C443" s="46"/>
     </row>
     <row r="444" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C444" s="12"/>
+      <c r="C444" s="46"/>
     </row>
     <row r="445" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C445" s="12"/>
+      <c r="C445" s="46"/>
     </row>
     <row r="446" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C446" s="12"/>
+      <c r="C446" s="46"/>
     </row>
     <row r="447" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C447" s="12"/>
+      <c r="C447" s="46"/>
     </row>
     <row r="448" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C448" s="12"/>
+      <c r="C448" s="46"/>
     </row>
     <row r="449" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C449" s="12"/>
+      <c r="C449" s="46"/>
     </row>
     <row r="450" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C450" s="12"/>
+      <c r="C450" s="46"/>
     </row>
     <row r="451" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C451" s="12"/>
+      <c r="C451" s="46"/>
     </row>
     <row r="452" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C452" s="12"/>
+      <c r="C452" s="46"/>
     </row>
     <row r="453" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C453" s="12"/>
+      <c r="C453" s="46"/>
     </row>
     <row r="454" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C454" s="12"/>
+      <c r="C454" s="46"/>
     </row>
     <row r="455" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C455" s="12"/>
+      <c r="C455" s="46"/>
     </row>
     <row r="456" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C456" s="12"/>
+      <c r="C456" s="46"/>
     </row>
     <row r="457" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C457" s="12"/>
+      <c r="C457" s="46"/>
     </row>
     <row r="458" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C458" s="12"/>
+      <c r="C458" s="46"/>
     </row>
     <row r="459" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C459" s="12"/>
+      <c r="C459" s="46"/>
     </row>
     <row r="460" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C460" s="12"/>
+      <c r="C460" s="46"/>
     </row>
     <row r="461" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C461" s="12"/>
+      <c r="C461" s="46"/>
     </row>
     <row r="462" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C462" s="12"/>
+      <c r="C462" s="46"/>
     </row>
     <row r="463" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C463" s="12"/>
+      <c r="C463" s="46"/>
     </row>
     <row r="464" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C464" s="12"/>
+      <c r="C464" s="46"/>
     </row>
     <row r="465" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C465" s="12"/>
+      <c r="C465" s="46"/>
     </row>
     <row r="466" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C466" s="12"/>
+      <c r="C466" s="46"/>
     </row>
     <row r="467" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C467" s="12"/>
+      <c r="C467" s="46"/>
     </row>
     <row r="468" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C468" s="12"/>
+      <c r="C468" s="46"/>
     </row>
     <row r="469" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C469" s="12"/>
+      <c r="C469" s="46"/>
     </row>
     <row r="470" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C470" s="12"/>
+      <c r="C470" s="46"/>
     </row>
     <row r="471" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C471" s="12"/>
+      <c r="C471" s="46"/>
     </row>
     <row r="472" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C472" s="12"/>
+      <c r="C472" s="46"/>
     </row>
     <row r="473" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C473" s="12"/>
+      <c r="C473" s="46"/>
     </row>
     <row r="474" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C474" s="12"/>
+      <c r="C474" s="46"/>
     </row>
     <row r="475" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C475" s="12"/>
+      <c r="C475" s="46"/>
     </row>
     <row r="476" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C476" s="12"/>
+      <c r="C476" s="46"/>
     </row>
     <row r="477" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C477" s="12"/>
+      <c r="C477" s="46"/>
     </row>
     <row r="478" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C478" s="12"/>
+      <c r="C478" s="46"/>
     </row>
     <row r="479" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C479" s="12"/>
+      <c r="C479" s="46"/>
     </row>
     <row r="480" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C480" s="12"/>
+      <c r="C480" s="46"/>
     </row>
     <row r="481" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C481" s="12"/>
+      <c r="C481" s="46"/>
     </row>
     <row r="482" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C482" s="12"/>
+      <c r="C482" s="46"/>
     </row>
     <row r="483" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C483" s="12"/>
+      <c r="C483" s="46"/>
     </row>
     <row r="484" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C484" s="12"/>
+      <c r="C484" s="46"/>
     </row>
     <row r="485" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C485" s="12"/>
+      <c r="C485" s="46"/>
     </row>
     <row r="486" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C486" s="12"/>
+      <c r="C486" s="46"/>
     </row>
     <row r="487" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C487" s="12"/>
+      <c r="C487" s="46"/>
     </row>
     <row r="488" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C488" s="12"/>
+      <c r="C488" s="46"/>
     </row>
     <row r="489" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C489" s="12"/>
+      <c r="C489" s="46"/>
     </row>
     <row r="490" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C490" s="12"/>
+      <c r="C490" s="46"/>
     </row>
     <row r="491" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C491" s="12"/>
+      <c r="C491" s="46"/>
     </row>
     <row r="492" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C492" s="12"/>
+      <c r="C492" s="46"/>
     </row>
     <row r="493" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C493" s="12"/>
+      <c r="C493" s="46"/>
     </row>
     <row r="494" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C494" s="12"/>
+      <c r="C494" s="46"/>
     </row>
     <row r="495" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C495" s="12"/>
+      <c r="C495" s="46"/>
     </row>
     <row r="496" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C496" s="12"/>
+      <c r="C496" s="46"/>
     </row>
     <row r="497" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C497" s="12"/>
+      <c r="C497" s="46"/>
     </row>
     <row r="498" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C498" s="12"/>
+      <c r="C498" s="46"/>
     </row>
     <row r="499" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C499" s="12"/>
+      <c r="C499" s="46"/>
     </row>
     <row r="500" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C500" s="12"/>
+      <c r="C500" s="46"/>
     </row>
     <row r="501" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C501" s="12"/>
+      <c r="C501" s="46"/>
     </row>
     <row r="502" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C502" s="12"/>
+      <c r="C502" s="46"/>
     </row>
     <row r="503" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C503" s="12"/>
+      <c r="C503" s="46"/>
     </row>
     <row r="504" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C504" s="12"/>
+      <c r="C504" s="46"/>
     </row>
     <row r="505" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C505" s="12"/>
+      <c r="C505" s="46"/>
     </row>
     <row r="506" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C506" s="12"/>
+      <c r="C506" s="46"/>
     </row>
     <row r="507" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C507" s="12"/>
+      <c r="C507" s="46"/>
     </row>
     <row r="508" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C508" s="12"/>
+      <c r="C508" s="46"/>
     </row>
     <row r="509" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C509" s="12"/>
+      <c r="C509" s="46"/>
     </row>
     <row r="510" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C510" s="12"/>
+      <c r="C510" s="46"/>
     </row>
     <row r="511" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C511" s="12"/>
+      <c r="C511" s="46"/>
     </row>
     <row r="512" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C512" s="12"/>
+      <c r="C512" s="46"/>
     </row>
     <row r="513" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C513" s="12"/>
+      <c r="C513" s="46"/>
     </row>
     <row r="514" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C514" s="12"/>
+      <c r="C514" s="46"/>
     </row>
     <row r="515" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C515" s="12"/>
+      <c r="C515" s="46"/>
     </row>
     <row r="516" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C516" s="12"/>
+      <c r="C516" s="46"/>
     </row>
     <row r="517" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C517" s="12"/>
+      <c r="C517" s="46"/>
     </row>
     <row r="518" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C518" s="12"/>
+      <c r="C518" s="46"/>
     </row>
     <row r="519" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C519" s="12"/>
+      <c r="C519" s="46"/>
     </row>
     <row r="520" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C520" s="12"/>
+      <c r="C520" s="46"/>
     </row>
     <row r="521" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C521" s="12"/>
+      <c r="C521" s="46"/>
     </row>
     <row r="522" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C522" s="12"/>
+      <c r="C522" s="46"/>
     </row>
     <row r="523" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C523" s="12"/>
+      <c r="C523" s="46"/>
     </row>
     <row r="524" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C524" s="12"/>
+      <c r="C524" s="46"/>
     </row>
     <row r="525" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C525" s="12"/>
+      <c r="C525" s="46"/>
     </row>
     <row r="526" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C526" s="12"/>
+      <c r="C526" s="46"/>
     </row>
     <row r="527" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C527" s="12"/>
+      <c r="C527" s="46"/>
     </row>
     <row r="528" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C528" s="12"/>
+      <c r="C528" s="46"/>
     </row>
     <row r="529" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C529" s="12"/>
+      <c r="C529" s="46"/>
     </row>
     <row r="530" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C530" s="12"/>
+      <c r="C530" s="46"/>
     </row>
     <row r="531" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C531" s="12"/>
+      <c r="C531" s="46"/>
     </row>
     <row r="532" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C532" s="12"/>
+      <c r="C532" s="46"/>
     </row>
     <row r="533" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C533" s="12"/>
+      <c r="C533" s="46"/>
     </row>
     <row r="534" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C534" s="12"/>
+      <c r="C534" s="46"/>
     </row>
     <row r="535" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C535" s="12"/>
+      <c r="C535" s="46"/>
     </row>
     <row r="536" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C536" s="12"/>
+      <c r="C536" s="46"/>
     </row>
     <row r="537" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C537" s="12"/>
+      <c r="C537" s="46"/>
     </row>
     <row r="538" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C538" s="12"/>
+      <c r="C538" s="46"/>
     </row>
     <row r="539" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C539" s="12"/>
+      <c r="C539" s="46"/>
     </row>
     <row r="540" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C540" s="12"/>
+      <c r="C540" s="46"/>
     </row>
     <row r="541" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C541" s="12"/>
+      <c r="C541" s="46"/>
     </row>
     <row r="542" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C542" s="12"/>
+      <c r="C542" s="46"/>
     </row>
     <row r="543" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C543" s="12"/>
+      <c r="C543" s="46"/>
     </row>
     <row r="544" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C544" s="12"/>
+      <c r="C544" s="46"/>
     </row>
     <row r="545" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C545" s="12"/>
+      <c r="C545" s="46"/>
     </row>
     <row r="546" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C546" s="12"/>
+      <c r="C546" s="46"/>
     </row>
     <row r="547" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C547" s="12"/>
+      <c r="C547" s="46"/>
     </row>
     <row r="548" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C548" s="12"/>
+      <c r="C548" s="46"/>
     </row>
     <row r="549" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C549" s="12"/>
+      <c r="C549" s="46"/>
     </row>
     <row r="550" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C550" s="12"/>
+      <c r="C550" s="46"/>
     </row>
     <row r="551" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C551" s="12"/>
+      <c r="C551" s="46"/>
     </row>
     <row r="552" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C552" s="12"/>
+      <c r="C552" s="46"/>
     </row>
     <row r="553" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C553" s="12"/>
+      <c r="C553" s="46"/>
     </row>
     <row r="554" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C554" s="12"/>
+      <c r="C554" s="46"/>
     </row>
     <row r="555" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C555" s="12"/>
+      <c r="C555" s="46"/>
     </row>
     <row r="556" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C556" s="12"/>
+      <c r="C556" s="46"/>
     </row>
     <row r="557" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C557" s="12"/>
+      <c r="C557" s="46"/>
     </row>
     <row r="558" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C558" s="12"/>
+      <c r="C558" s="46"/>
     </row>
     <row r="559" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C559" s="12"/>
+      <c r="C559" s="46"/>
     </row>
     <row r="560" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C560" s="12"/>
+      <c r="C560" s="46"/>
     </row>
     <row r="561" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C561" s="12"/>
+      <c r="C561" s="46"/>
     </row>
     <row r="562" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C562" s="12"/>
+      <c r="C562" s="46"/>
     </row>
     <row r="563" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C563" s="12"/>
+      <c r="C563" s="46"/>
     </row>
     <row r="564" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C564" s="12"/>
+      <c r="C564" s="46"/>
     </row>
     <row r="565" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C565" s="12"/>
+      <c r="C565" s="46"/>
     </row>
     <row r="566" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C566" s="12"/>
+      <c r="C566" s="46"/>
     </row>
     <row r="567" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C567" s="12"/>
+      <c r="C567" s="46"/>
     </row>
     <row r="568" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C568" s="12"/>
+      <c r="C568" s="46"/>
     </row>
     <row r="569" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C569" s="12"/>
+      <c r="C569" s="46"/>
     </row>
     <row r="570" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C570" s="12"/>
+      <c r="C570" s="46"/>
     </row>
     <row r="571" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C571" s="12"/>
+      <c r="C571" s="46"/>
     </row>
     <row r="572" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C572" s="12"/>
+      <c r="C572" s="46"/>
     </row>
     <row r="573" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C573" s="12"/>
+      <c r="C573" s="46"/>
     </row>
     <row r="574" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C574" s="12"/>
+      <c r="C574" s="46"/>
     </row>
     <row r="575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C575" s="12"/>
+      <c r="C575" s="46"/>
     </row>
     <row r="576" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C576" s="12"/>
+      <c r="C576" s="46"/>
     </row>
     <row r="577" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C577" s="12"/>
+      <c r="C577" s="46"/>
     </row>
     <row r="578" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C578" s="12"/>
+      <c r="C578" s="46"/>
     </row>
     <row r="579" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C579" s="12"/>
+      <c r="C579" s="46"/>
     </row>
     <row r="580" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C580" s="12"/>
+      <c r="C580" s="46"/>
     </row>
     <row r="581" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C581" s="12"/>
+      <c r="C581" s="46"/>
     </row>
     <row r="582" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C582" s="12"/>
+      <c r="C582" s="46"/>
     </row>
     <row r="583" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C583" s="12"/>
+      <c r="C583" s="46"/>
     </row>
     <row r="584" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C584" s="12"/>
+      <c r="C584" s="46"/>
     </row>
     <row r="585" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C585" s="12"/>
+      <c r="C585" s="46"/>
     </row>
     <row r="586" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C586" s="12"/>
+      <c r="C586" s="46"/>
     </row>
     <row r="587" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C587" s="12"/>
+      <c r="C587" s="46"/>
     </row>
     <row r="588" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C588" s="12"/>
+      <c r="C588" s="46"/>
     </row>
     <row r="589" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C589" s="12"/>
+      <c r="C589" s="46"/>
     </row>
     <row r="590" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C590" s="12"/>
+      <c r="C590" s="46"/>
     </row>
     <row r="591" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C591" s="12"/>
+      <c r="C591" s="46"/>
     </row>
     <row r="592" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C592" s="12"/>
+      <c r="C592" s="46"/>
     </row>
     <row r="593" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C593" s="12"/>
+      <c r="C593" s="46"/>
     </row>
     <row r="594" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C594" s="12"/>
+      <c r="C594" s="46"/>
     </row>
     <row r="595" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C595" s="12"/>
+      <c r="C595" s="46"/>
     </row>
     <row r="596" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C596" s="12"/>
+      <c r="C596" s="46"/>
     </row>
     <row r="597" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C597" s="12"/>
+      <c r="C597" s="46"/>
     </row>
     <row r="598" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C598" s="12"/>
+      <c r="C598" s="46"/>
     </row>
     <row r="599" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C599" s="12"/>
+      <c r="C599" s="46"/>
     </row>
     <row r="600" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C600" s="12"/>
+      <c r="C600" s="46"/>
     </row>
     <row r="601" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C601" s="12"/>
+      <c r="C601" s="46"/>
     </row>
     <row r="602" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C602" s="12"/>
+      <c r="C602" s="46"/>
     </row>
     <row r="603" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C603" s="12"/>
+      <c r="C603" s="46"/>
     </row>
     <row r="604" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C604" s="12"/>
+      <c r="C604" s="46"/>
     </row>
     <row r="605" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C605" s="12"/>
+      <c r="C605" s="46"/>
     </row>
     <row r="606" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C606" s="12"/>
+      <c r="C606" s="46"/>
     </row>
     <row r="607" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C607" s="12"/>
+      <c r="C607" s="46"/>
     </row>
     <row r="608" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C608" s="12"/>
+      <c r="C608" s="46"/>
     </row>
     <row r="609" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C609" s="12"/>
+      <c r="C609" s="46"/>
     </row>
     <row r="610" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C610" s="12"/>
+      <c r="C610" s="46"/>
     </row>
     <row r="611" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C611" s="12"/>
+      <c r="C611" s="46"/>
     </row>
     <row r="612" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C612" s="12"/>
+      <c r="C612" s="46"/>
     </row>
     <row r="613" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C613" s="12"/>
+      <c r="C613" s="46"/>
     </row>
     <row r="614" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C614" s="12"/>
+      <c r="C614" s="46"/>
     </row>
     <row r="615" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C615" s="12"/>
+      <c r="C615" s="46"/>
     </row>
     <row r="616" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C616" s="12"/>
+      <c r="C616" s="46"/>
     </row>
     <row r="617" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C617" s="12"/>
+      <c r="C617" s="46"/>
     </row>
     <row r="618" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C618" s="12"/>
+      <c r="C618" s="46"/>
     </row>
     <row r="619" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C619" s="12"/>
+      <c r="C619" s="46"/>
     </row>
     <row r="620" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C620" s="12"/>
+      <c r="C620" s="46"/>
     </row>
     <row r="621" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C621" s="12"/>
+      <c r="C621" s="46"/>
     </row>
     <row r="622" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C622" s="12"/>
+      <c r="C622" s="46"/>
     </row>
     <row r="623" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C623" s="12"/>
+      <c r="C623" s="46"/>
     </row>
     <row r="624" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C624" s="12"/>
+      <c r="C624" s="46"/>
     </row>
     <row r="625" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C625" s="12"/>
+      <c r="C625" s="46"/>
     </row>
     <row r="626" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C626" s="12"/>
+      <c r="C626" s="46"/>
     </row>
     <row r="627" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C627" s="12"/>
+      <c r="C627" s="46"/>
     </row>
     <row r="628" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C628" s="12"/>
+      <c r="C628" s="46"/>
     </row>
     <row r="629" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C629" s="12"/>
+      <c r="C629" s="46"/>
     </row>
     <row r="630" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C630" s="12"/>
+      <c r="C630" s="46"/>
     </row>
     <row r="631" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C631" s="12"/>
+      <c r="C631" s="46"/>
     </row>
     <row r="632" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C632" s="12"/>
+      <c r="C632" s="46"/>
     </row>
     <row r="633" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C633" s="12"/>
+      <c r="C633" s="46"/>
     </row>
     <row r="634" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C634" s="12"/>
+      <c r="C634" s="46"/>
     </row>
     <row r="635" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C635" s="12"/>
+      <c r="C635" s="46"/>
     </row>
     <row r="636" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C636" s="12"/>
+      <c r="C636" s="46"/>
     </row>
     <row r="637" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C637" s="12"/>
+      <c r="C637" s="46"/>
     </row>
     <row r="638" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C638" s="12"/>
+      <c r="C638" s="46"/>
     </row>
     <row r="639" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C639" s="12"/>
+      <c r="C639" s="46"/>
     </row>
     <row r="640" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C640" s="12"/>
+      <c r="C640" s="46"/>
     </row>
     <row r="641" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C641" s="12"/>
+      <c r="C641" s="46"/>
     </row>
     <row r="642" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C642" s="12"/>
+      <c r="C642" s="46"/>
     </row>
     <row r="643" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C643" s="12"/>
+      <c r="C643" s="46"/>
     </row>
     <row r="644" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C644" s="12"/>
+      <c r="C644" s="46"/>
     </row>
     <row r="645" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C645" s="12"/>
+      <c r="C645" s="46"/>
     </row>
     <row r="646" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C646" s="12"/>
+      <c r="C646" s="46"/>
     </row>
     <row r="647" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C647" s="12"/>
+      <c r="C647" s="46"/>
     </row>
     <row r="648" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C648" s="12"/>
+      <c r="C648" s="46"/>
     </row>
     <row r="649" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C649" s="12"/>
+      <c r="C649" s="46"/>
     </row>
     <row r="650" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C650" s="12"/>
+      <c r="C650" s="46"/>
     </row>
     <row r="651" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C651" s="12"/>
+      <c r="C651" s="46"/>
     </row>
     <row r="652" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C652" s="12"/>
+      <c r="C652" s="46"/>
     </row>
     <row r="653" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C653" s="12"/>
+      <c r="C653" s="46"/>
     </row>
     <row r="654" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C654" s="12"/>
+      <c r="C654" s="46"/>
     </row>
     <row r="655" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C655" s="12"/>
+      <c r="C655" s="46"/>
     </row>
     <row r="656" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C656" s="12"/>
+      <c r="C656" s="46"/>
     </row>
     <row r="657" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C657" s="12"/>
+      <c r="C657" s="46"/>
     </row>
     <row r="658" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C658" s="12"/>
+      <c r="C658" s="46"/>
     </row>
     <row r="659" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C659" s="12"/>
+      <c r="C659" s="46"/>
     </row>
     <row r="660" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C660" s="12"/>
+      <c r="C660" s="46"/>
     </row>
     <row r="661" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C661" s="12"/>
+      <c r="C661" s="46"/>
     </row>
     <row r="662" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C662" s="12"/>
+      <c r="C662" s="46"/>
     </row>
     <row r="663" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C663" s="12"/>
+      <c r="C663" s="46"/>
     </row>
     <row r="664" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C664" s="12"/>
+      <c r="C664" s="46"/>
     </row>
     <row r="665" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C665" s="12"/>
+      <c r="C665" s="46"/>
     </row>
     <row r="666" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C666" s="12"/>
+      <c r="C666" s="46"/>
     </row>
     <row r="667" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C667" s="12"/>
+      <c r="C667" s="46"/>
     </row>
     <row r="668" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C668" s="12"/>
+      <c r="C668" s="46"/>
     </row>
     <row r="669" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C669" s="12"/>
+      <c r="C669" s="46"/>
     </row>
     <row r="670" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C670" s="12"/>
+      <c r="C670" s="46"/>
     </row>
     <row r="671" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C671" s="12"/>
+      <c r="C671" s="46"/>
     </row>
     <row r="672" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C672" s="12"/>
+      <c r="C672" s="46"/>
     </row>
     <row r="673" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C673" s="12"/>
+      <c r="C673" s="46"/>
     </row>
     <row r="674" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C674" s="12"/>
+      <c r="C674" s="46"/>
     </row>
     <row r="675" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C675" s="12"/>
+      <c r="C675" s="46"/>
     </row>
     <row r="676" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C676" s="12"/>
+      <c r="C676" s="46"/>
     </row>
     <row r="677" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C677" s="12"/>
+      <c r="C677" s="46"/>
     </row>
     <row r="678" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C678" s="12"/>
+      <c r="C678" s="46"/>
     </row>
     <row r="679" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C679" s="12"/>
+      <c r="C679" s="46"/>
     </row>
     <row r="680" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C680" s="12"/>
+      <c r="C680" s="46"/>
     </row>
     <row r="681" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C681" s="12"/>
+      <c r="C681" s="46"/>
     </row>
     <row r="682" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C682" s="12"/>
+      <c r="C682" s="46"/>
     </row>
     <row r="683" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C683" s="12"/>
+      <c r="C683" s="46"/>
     </row>
     <row r="684" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C684" s="12"/>
+      <c r="C684" s="46"/>
     </row>
     <row r="685" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C685" s="12"/>
+      <c r="C685" s="46"/>
     </row>
     <row r="686" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C686" s="12"/>
+      <c r="C686" s="46"/>
     </row>
     <row r="687" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C687" s="12"/>
+      <c r="C687" s="46"/>
     </row>
     <row r="688" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C688" s="12"/>
+      <c r="C688" s="46"/>
     </row>
     <row r="689" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C689" s="12"/>
+      <c r="C689" s="46"/>
     </row>
     <row r="690" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C690" s="12"/>
+      <c r="C690" s="46"/>
     </row>
     <row r="691" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C691" s="12"/>
+      <c r="C691" s="46"/>
     </row>
     <row r="692" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C692" s="12"/>
+      <c r="C692" s="46"/>
     </row>
     <row r="693" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C693" s="12"/>
+      <c r="C693" s="46"/>
     </row>
     <row r="694" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C694" s="12"/>
+      <c r="C694" s="46"/>
     </row>
     <row r="695" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C695" s="12"/>
+      <c r="C695" s="46"/>
     </row>
     <row r="696" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C696" s="12"/>
+      <c r="C696" s="46"/>
     </row>
     <row r="697" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C697" s="12"/>
+      <c r="C697" s="46"/>
     </row>
     <row r="698" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C698" s="12"/>
+      <c r="C698" s="46"/>
     </row>
     <row r="699" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C699" s="12"/>
+      <c r="C699" s="46"/>
     </row>
     <row r="700" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C700" s="12"/>
+      <c r="C700" s="46"/>
     </row>
     <row r="701" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C701" s="12"/>
+      <c r="C701" s="46"/>
     </row>
     <row r="702" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C702" s="12"/>
+      <c r="C702" s="46"/>
     </row>
     <row r="703" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C703" s="12"/>
+      <c r="C703" s="46"/>
     </row>
     <row r="704" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C704" s="12"/>
+      <c r="C704" s="46"/>
     </row>
     <row r="705" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C705" s="12"/>
+      <c r="C705" s="46"/>
     </row>
     <row r="706" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C706" s="12"/>
+      <c r="C706" s="46"/>
     </row>
     <row r="707" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C707" s="12"/>
+      <c r="C707" s="46"/>
     </row>
     <row r="708" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C708" s="12"/>
+      <c r="C708" s="46"/>
     </row>
     <row r="709" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C709" s="12"/>
+      <c r="C709" s="46"/>
     </row>
     <row r="710" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C710" s="12"/>
+      <c r="C710" s="46"/>
     </row>
     <row r="711" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C711" s="12"/>
+      <c r="C711" s="46"/>
     </row>
     <row r="712" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C712" s="12"/>
+      <c r="C712" s="46"/>
     </row>
     <row r="713" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C713" s="12"/>
+      <c r="C713" s="46"/>
     </row>
     <row r="714" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C714" s="12"/>
+      <c r="C714" s="46"/>
     </row>
     <row r="715" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C715" s="12"/>
+      <c r="C715" s="46"/>
     </row>
     <row r="716" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C716" s="12"/>
+      <c r="C716" s="46"/>
     </row>
     <row r="717" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C717" s="12"/>
+      <c r="C717" s="46"/>
     </row>
     <row r="718" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C718" s="12"/>
+      <c r="C718" s="46"/>
     </row>
     <row r="719" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C719" s="12"/>
+      <c r="C719" s="46"/>
     </row>
     <row r="720" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C720" s="12"/>
+      <c r="C720" s="46"/>
     </row>
     <row r="721" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C721" s="12"/>
+      <c r="C721" s="46"/>
     </row>
     <row r="722" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C722" s="12"/>
+      <c r="C722" s="46"/>
     </row>
     <row r="723" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C723" s="12"/>
+      <c r="C723" s="46"/>
     </row>
     <row r="724" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C724" s="12"/>
+      <c r="C724" s="46"/>
     </row>
     <row r="725" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C725" s="12"/>
+      <c r="C725" s="46"/>
     </row>
     <row r="726" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C726" s="12"/>
+      <c r="C726" s="46"/>
     </row>
     <row r="727" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C727" s="12"/>
+      <c r="C727" s="46"/>
     </row>
     <row r="728" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C728" s="12"/>
+      <c r="C728" s="46"/>
     </row>
     <row r="729" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C729" s="12"/>
+      <c r="C729" s="46"/>
     </row>
     <row r="730" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C730" s="12"/>
+      <c r="C730" s="46"/>
     </row>
     <row r="731" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C731" s="12"/>
+      <c r="C731" s="46"/>
     </row>
     <row r="732" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C732" s="12"/>
+      <c r="C732" s="46"/>
     </row>
     <row r="733" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C733" s="12"/>
+      <c r="C733" s="46"/>
     </row>
     <row r="734" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C734" s="12"/>
+      <c r="C734" s="46"/>
     </row>
     <row r="735" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C735" s="12"/>
+      <c r="C735" s="46"/>
     </row>
     <row r="736" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C736" s="12"/>
+      <c r="C736" s="46"/>
     </row>
     <row r="737" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C737" s="12"/>
+      <c r="C737" s="46"/>
     </row>
     <row r="738" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C738" s="12"/>
+      <c r="C738" s="46"/>
     </row>
     <row r="739" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C739" s="12"/>
+      <c r="C739" s="46"/>
     </row>
     <row r="740" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C740" s="12"/>
+      <c r="C740" s="46"/>
     </row>
     <row r="741" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C741" s="12"/>
+      <c r="C741" s="46"/>
     </row>
     <row r="742" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C742" s="12"/>
+      <c r="C742" s="46"/>
     </row>
     <row r="743" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C743" s="12"/>
+      <c r="C743" s="46"/>
     </row>
     <row r="744" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C744" s="12"/>
+      <c r="C744" s="46"/>
     </row>
     <row r="745" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C745" s="12"/>
+      <c r="C745" s="46"/>
     </row>
     <row r="746" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C746" s="12"/>
+      <c r="C746" s="46"/>
     </row>
     <row r="747" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C747" s="12"/>
+      <c r="C747" s="46"/>
     </row>
     <row r="748" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C748" s="12"/>
+      <c r="C748" s="46"/>
     </row>
     <row r="749" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C749" s="12"/>
+      <c r="C749" s="46"/>
     </row>
     <row r="750" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C750" s="12"/>
+      <c r="C750" s="46"/>
     </row>
     <row r="751" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C751" s="12"/>
+      <c r="C751" s="46"/>
     </row>
     <row r="752" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C752" s="12"/>
+      <c r="C752" s="46"/>
     </row>
     <row r="753" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C753" s="12"/>
+      <c r="C753" s="46"/>
     </row>
     <row r="754" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C754" s="12"/>
+      <c r="C754" s="46"/>
     </row>
     <row r="755" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C755" s="12"/>
+      <c r="C755" s="46"/>
     </row>
     <row r="756" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C756" s="12"/>
+      <c r="C756" s="46"/>
     </row>
     <row r="757" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C757" s="12"/>
+      <c r="C757" s="46"/>
     </row>
     <row r="758" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C758" s="12"/>
+      <c r="C758" s="46"/>
     </row>
     <row r="759" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C759" s="12"/>
+      <c r="C759" s="46"/>
     </row>
     <row r="760" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C760" s="12"/>
+      <c r="C760" s="46"/>
     </row>
     <row r="761" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C761" s="12"/>
+      <c r="C761" s="46"/>
     </row>
     <row r="762" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C762" s="12"/>
+      <c r="C762" s="46"/>
     </row>
     <row r="763" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C763" s="12"/>
+      <c r="C763" s="46"/>
     </row>
     <row r="764" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C764" s="12"/>
+      <c r="C764" s="46"/>
     </row>
     <row r="765" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C765" s="12"/>
+      <c r="C765" s="46"/>
     </row>
     <row r="766" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C766" s="12"/>
+      <c r="C766" s="46"/>
     </row>
     <row r="767" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C767" s="12"/>
+      <c r="C767" s="46"/>
     </row>
     <row r="768" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C768" s="12"/>
+      <c r="C768" s="46"/>
     </row>
     <row r="769" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C769" s="12"/>
+      <c r="C769" s="46"/>
     </row>
     <row r="770" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C770" s="12"/>
+      <c r="C770" s="46"/>
     </row>
     <row r="771" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C771" s="12"/>
+      <c r="C771" s="46"/>
     </row>
     <row r="772" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C772" s="12"/>
+      <c r="C772" s="46"/>
     </row>
     <row r="773" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C773" s="12"/>
+      <c r="C773" s="46"/>
     </row>
     <row r="774" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C774" s="12"/>
+      <c r="C774" s="46"/>
     </row>
     <row r="775" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C775" s="12"/>
+      <c r="C775" s="46"/>
     </row>
     <row r="776" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C776" s="12"/>
+      <c r="C776" s="46"/>
     </row>
     <row r="777" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C777" s="12"/>
+      <c r="C777" s="46"/>
     </row>
     <row r="778" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C778" s="12"/>
+      <c r="C778" s="46"/>
     </row>
     <row r="779" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C779" s="12"/>
+      <c r="C779" s="46"/>
     </row>
     <row r="780" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C780" s="12"/>
+      <c r="C780" s="46"/>
     </row>
     <row r="781" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C781" s="12"/>
+      <c r="C781" s="46"/>
     </row>
     <row r="782" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C782" s="12"/>
+      <c r="C782" s="46"/>
     </row>
     <row r="783" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C783" s="12"/>
+      <c r="C783" s="46"/>
     </row>
     <row r="784" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C784" s="12"/>
+      <c r="C784" s="46"/>
     </row>
     <row r="785" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C785" s="12"/>
+      <c r="C785" s="46"/>
     </row>
     <row r="786" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C786" s="12"/>
+      <c r="C786" s="46"/>
     </row>
     <row r="787" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C787" s="12"/>
+      <c r="C787" s="46"/>
     </row>
     <row r="788" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C788" s="12"/>
+      <c r="C788" s="46"/>
     </row>
     <row r="789" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C789" s="12"/>
+      <c r="C789" s="46"/>
     </row>
     <row r="790" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C790" s="12"/>
+      <c r="C790" s="46"/>
     </row>
     <row r="791" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C791" s="12"/>
+      <c r="C791" s="46"/>
     </row>
     <row r="792" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C792" s="12"/>
+      <c r="C792" s="46"/>
     </row>
     <row r="793" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C793" s="12"/>
+      <c r="C793" s="46"/>
     </row>
     <row r="794" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C794" s="12"/>
+      <c r="C794" s="46"/>
     </row>
     <row r="795" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C795" s="12"/>
+      <c r="C795" s="46"/>
     </row>
     <row r="796" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C796" s="12"/>
+      <c r="C796" s="46"/>
     </row>
     <row r="797" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C797" s="12"/>
+      <c r="C797" s="46"/>
     </row>
     <row r="798" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C798" s="12"/>
+      <c r="C798" s="46"/>
     </row>
     <row r="799" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C799" s="12"/>
+      <c r="C799" s="46"/>
     </row>
     <row r="800" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C800" s="12"/>
+      <c r="C800" s="46"/>
     </row>
     <row r="801" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C801" s="12"/>
+      <c r="C801" s="46"/>
     </row>
     <row r="802" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C802" s="12"/>
+      <c r="C802" s="46"/>
     </row>
     <row r="803" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C803" s="12"/>
+      <c r="C803" s="46"/>
     </row>
     <row r="804" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C804" s="12"/>
+      <c r="C804" s="46"/>
     </row>
     <row r="805" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C805" s="12"/>
+      <c r="C805" s="46"/>
     </row>
     <row r="806" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C806" s="12"/>
+      <c r="C806" s="46"/>
     </row>
     <row r="807" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C807" s="12"/>
+      <c r="C807" s="46"/>
     </row>
     <row r="808" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C808" s="12"/>
+      <c r="C808" s="46"/>
     </row>
     <row r="809" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C809" s="12"/>
+      <c r="C809" s="46"/>
     </row>
     <row r="810" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C810" s="12"/>
+      <c r="C810" s="46"/>
     </row>
     <row r="811" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C811" s="12"/>
+      <c r="C811" s="46"/>
     </row>
     <row r="812" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C812" s="12"/>
+      <c r="C812" s="46"/>
     </row>
     <row r="813" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C813" s="12"/>
+      <c r="C813" s="46"/>
     </row>
     <row r="814" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C814" s="12"/>
+      <c r="C814" s="46"/>
     </row>
     <row r="815" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C815" s="12"/>
+      <c r="C815" s="46"/>
     </row>
     <row r="816" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C816" s="12"/>
+      <c r="C816" s="46"/>
     </row>
     <row r="817" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C817" s="12"/>
+      <c r="C817" s="46"/>
     </row>
     <row r="818" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C818" s="12"/>
+      <c r="C818" s="46"/>
     </row>
     <row r="819" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C819" s="12"/>
+      <c r="C819" s="46"/>
     </row>
     <row r="820" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C820" s="12"/>
+      <c r="C820" s="46"/>
     </row>
     <row r="821" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C821" s="12"/>
+      <c r="C821" s="46"/>
     </row>
     <row r="822" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C822" s="12"/>
+      <c r="C822" s="46"/>
     </row>
     <row r="823" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C823" s="12"/>
+      <c r="C823" s="46"/>
     </row>
     <row r="824" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C824" s="12"/>
+      <c r="C824" s="46"/>
     </row>
     <row r="825" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C825" s="12"/>
+      <c r="C825" s="46"/>
     </row>
     <row r="826" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C826" s="12"/>
+      <c r="C826" s="46"/>
     </row>
     <row r="827" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C827" s="12"/>
+      <c r="C827" s="46"/>
     </row>
     <row r="828" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C828" s="12"/>
+      <c r="C828" s="46"/>
     </row>
     <row r="829" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C829" s="12"/>
+      <c r="C829" s="46"/>
     </row>
     <row r="830" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C830" s="12"/>
+      <c r="C830" s="46"/>
     </row>
     <row r="831" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C831" s="12"/>
+      <c r="C831" s="46"/>
     </row>
     <row r="832" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C832" s="12"/>
+      <c r="C832" s="46"/>
     </row>
     <row r="833" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C833" s="12"/>
+      <c r="C833" s="46"/>
     </row>
     <row r="834" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C834" s="12"/>
+      <c r="C834" s="46"/>
     </row>
     <row r="835" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C835" s="12"/>
+      <c r="C835" s="46"/>
     </row>
     <row r="836" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C836" s="12"/>
+      <c r="C836" s="46"/>
     </row>
     <row r="837" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C837" s="12"/>
+      <c r="C837" s="46"/>
     </row>
     <row r="838" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C838" s="12"/>
+      <c r="C838" s="46"/>
     </row>
     <row r="839" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C839" s="12"/>
+      <c r="C839" s="46"/>
     </row>
     <row r="840" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C840" s="12"/>
+      <c r="C840" s="46"/>
     </row>
     <row r="841" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C841" s="12"/>
+      <c r="C841" s="46"/>
     </row>
     <row r="842" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C842" s="12"/>
+      <c r="C842" s="46"/>
     </row>
     <row r="843" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C843" s="12"/>
+      <c r="C843" s="46"/>
     </row>
     <row r="844" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C844" s="12"/>
+      <c r="C844" s="46"/>
     </row>
     <row r="845" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C845" s="12"/>
+      <c r="C845" s="46"/>
     </row>
     <row r="846" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C846" s="12"/>
+      <c r="C846" s="46"/>
     </row>
     <row r="847" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C847" s="12"/>
+      <c r="C847" s="46"/>
     </row>
     <row r="848" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C848" s="12"/>
+      <c r="C848" s="46"/>
     </row>
     <row r="849" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C849" s="12"/>
+      <c r="C849" s="46"/>
     </row>
     <row r="850" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C850" s="12"/>
+      <c r="C850" s="46"/>
     </row>
     <row r="851" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C851" s="12"/>
+      <c r="C851" s="46"/>
     </row>
     <row r="852" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C852" s="12"/>
+      <c r="C852" s="46"/>
     </row>
     <row r="853" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C853" s="12"/>
+      <c r="C853" s="46"/>
     </row>
     <row r="854" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C854" s="12"/>
+      <c r="C854" s="46"/>
     </row>
     <row r="855" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C855" s="12"/>
+      <c r="C855" s="46"/>
     </row>
     <row r="856" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C856" s="12"/>
+      <c r="C856" s="46"/>
     </row>
     <row r="857" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C857" s="12"/>
+      <c r="C857" s="46"/>
     </row>
     <row r="858" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C858" s="12"/>
+      <c r="C858" s="46"/>
     </row>
     <row r="859" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C859" s="12"/>
+      <c r="C859" s="46"/>
     </row>
     <row r="860" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C860" s="12"/>
+      <c r="C860" s="46"/>
     </row>
     <row r="861" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C861" s="12"/>
+      <c r="C861" s="46"/>
     </row>
     <row r="862" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C862" s="12"/>
+      <c r="C862" s="46"/>
     </row>
     <row r="863" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C863" s="12"/>
+      <c r="C863" s="46"/>
     </row>
     <row r="864" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C864" s="12"/>
+      <c r="C864" s="46"/>
     </row>
     <row r="865" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C865" s="12"/>
+      <c r="C865" s="46"/>
     </row>
     <row r="866" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C866" s="12"/>
+      <c r="C866" s="46"/>
     </row>
     <row r="867" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C867" s="12"/>
+      <c r="C867" s="46"/>
     </row>
     <row r="868" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C868" s="12"/>
+      <c r="C868" s="46"/>
     </row>
     <row r="869" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C869" s="12"/>
+      <c r="C869" s="46"/>
     </row>
     <row r="870" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C870" s="12"/>
+      <c r="C870" s="46"/>
     </row>
     <row r="871" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C871" s="12"/>
+      <c r="C871" s="46"/>
     </row>
     <row r="872" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C872" s="12"/>
+      <c r="C872" s="46"/>
     </row>
     <row r="873" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C873" s="12"/>
+      <c r="C873" s="46"/>
     </row>
     <row r="874" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C874" s="12"/>
+      <c r="C874" s="46"/>
     </row>
     <row r="875" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C875" s="12"/>
+      <c r="C875" s="46"/>
     </row>
     <row r="876" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C876" s="12"/>
+      <c r="C876" s="46"/>
     </row>
     <row r="877" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C877" s="12"/>
+      <c r="C877" s="46"/>
     </row>
     <row r="878" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C878" s="12"/>
+      <c r="C878" s="46"/>
     </row>
     <row r="879" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C879" s="12"/>
+      <c r="C879" s="46"/>
     </row>
     <row r="880" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C880" s="12"/>
+      <c r="C880" s="46"/>
     </row>
     <row r="881" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C881" s="12"/>
+      <c r="C881" s="46"/>
     </row>
     <row r="882" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C882" s="12"/>
+      <c r="C882" s="46"/>
     </row>
     <row r="883" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C883" s="12"/>
+      <c r="C883" s="46"/>
     </row>
     <row r="884" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C884" s="12"/>
+      <c r="C884" s="46"/>
     </row>
     <row r="885" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C885" s="12"/>
+      <c r="C885" s="46"/>
     </row>
     <row r="886" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C886" s="12"/>
+      <c r="C886" s="46"/>
     </row>
     <row r="887" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C887" s="12"/>
+      <c r="C887" s="46"/>
     </row>
     <row r="888" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C888" s="12"/>
+      <c r="C888" s="46"/>
     </row>
     <row r="889" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C889" s="12"/>
+      <c r="C889" s="46"/>
     </row>
     <row r="890" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C890" s="12"/>
+      <c r="C890" s="46"/>
     </row>
     <row r="891" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C891" s="12"/>
+      <c r="C891" s="46"/>
     </row>
     <row r="892" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C892" s="12"/>
+      <c r="C892" s="46"/>
     </row>
     <row r="893" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C893" s="12"/>
+      <c r="C893" s="46"/>
     </row>
     <row r="894" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C894" s="12"/>
+      <c r="C894" s="46"/>
     </row>
     <row r="895" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C895" s="12"/>
+      <c r="C895" s="46"/>
     </row>
     <row r="896" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C896" s="12"/>
+      <c r="C896" s="46"/>
     </row>
     <row r="897" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C897" s="12"/>
+      <c r="C897" s="46"/>
     </row>
     <row r="898" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C898" s="12"/>
+      <c r="C898" s="46"/>
     </row>
     <row r="899" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C899" s="12"/>
+      <c r="C899" s="46"/>
     </row>
     <row r="900" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C900" s="12"/>
+      <c r="C900" s="46"/>
     </row>
     <row r="901" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C901" s="12"/>
+      <c r="C901" s="46"/>
     </row>
     <row r="902" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C902" s="12"/>
+      <c r="C902" s="46"/>
     </row>
     <row r="903" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C903" s="12"/>
+      <c r="C903" s="46"/>
     </row>
     <row r="904" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C904" s="12"/>
+      <c r="C904" s="46"/>
     </row>
     <row r="905" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C905" s="12"/>
+      <c r="C905" s="46"/>
     </row>
     <row r="906" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C906" s="12"/>
+      <c r="C906" s="46"/>
     </row>
     <row r="907" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C907" s="12"/>
+      <c r="C907" s="46"/>
     </row>
     <row r="908" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C908" s="12"/>
+      <c r="C908" s="46"/>
     </row>
     <row r="909" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C909" s="12"/>
+      <c r="C909" s="46"/>
     </row>
     <row r="910" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C910" s="12"/>
+      <c r="C910" s="46"/>
     </row>
     <row r="911" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C911" s="12"/>
+      <c r="C911" s="46"/>
     </row>
     <row r="912" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C912" s="12"/>
+      <c r="C912" s="46"/>
     </row>
     <row r="913" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C913" s="12"/>
+      <c r="C913" s="46"/>
     </row>
     <row r="914" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C914" s="12"/>
+      <c r="C914" s="46"/>
     </row>
     <row r="915" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C915" s="12"/>
+      <c r="C915" s="46"/>
     </row>
     <row r="916" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C916" s="12"/>
+      <c r="C916" s="46"/>
     </row>
     <row r="917" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C917" s="12"/>
+      <c r="C917" s="46"/>
     </row>
     <row r="918" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C918" s="12"/>
+      <c r="C918" s="46"/>
     </row>
     <row r="919" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C919" s="12"/>
+      <c r="C919" s="46"/>
     </row>
     <row r="920" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C920" s="12"/>
+      <c r="C920" s="46"/>
     </row>
     <row r="921" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C921" s="12"/>
+      <c r="C921" s="46"/>
     </row>
     <row r="922" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C922" s="12"/>
+      <c r="C922" s="46"/>
     </row>
     <row r="923" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C923" s="12"/>
+      <c r="C923" s="46"/>
     </row>
     <row r="924" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C924" s="12"/>
+      <c r="C924" s="46"/>
     </row>
     <row r="925" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C925" s="12"/>
+      <c r="C925" s="46"/>
     </row>
     <row r="926" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C926" s="12"/>
+      <c r="C926" s="46"/>
     </row>
     <row r="927" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C927" s="12"/>
+      <c r="C927" s="46"/>
     </row>
     <row r="928" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C928" s="12"/>
+      <c r="C928" s="46"/>
     </row>
     <row r="929" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C929" s="12"/>
+      <c r="C929" s="46"/>
     </row>
     <row r="930" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C930" s="12"/>
+      <c r="C930" s="46"/>
     </row>
     <row r="931" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C931" s="12"/>
+      <c r="C931" s="46"/>
     </row>
     <row r="932" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C932" s="12"/>
+      <c r="C932" s="46"/>
     </row>
     <row r="933" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C933" s="12"/>
+      <c r="C933" s="46"/>
     </row>
     <row r="934" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C934" s="12"/>
+      <c r="C934" s="46"/>
     </row>
     <row r="935" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C935" s="12"/>
+      <c r="C935" s="46"/>
     </row>
     <row r="936" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C936" s="12"/>
+      <c r="C936" s="46"/>
     </row>
     <row r="937" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C937" s="12"/>
+      <c r="C937" s="46"/>
     </row>
     <row r="938" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C938" s="12"/>
+      <c r="C938" s="46"/>
     </row>
     <row r="939" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C939" s="12"/>
+      <c r="C939" s="46"/>
     </row>
     <row r="940" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C940" s="12"/>
+      <c r="C940" s="46"/>
     </row>
     <row r="941" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C941" s="12"/>
+      <c r="C941" s="46"/>
     </row>
     <row r="942" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C942" s="12"/>
+      <c r="C942" s="46"/>
     </row>
     <row r="943" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C943" s="12"/>
+      <c r="C943" s="46"/>
     </row>
     <row r="944" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C944" s="12"/>
+      <c r="C944" s="46"/>
     </row>
     <row r="945" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C945" s="12"/>
+      <c r="C945" s="46"/>
     </row>
     <row r="946" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C946" s="12"/>
+      <c r="C946" s="46"/>
     </row>
     <row r="947" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C947" s="12"/>
+      <c r="C947" s="46"/>
     </row>
     <row r="948" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C948" s="12"/>
+      <c r="C948" s="46"/>
     </row>
     <row r="949" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C949" s="12"/>
+      <c r="C949" s="46"/>
     </row>
     <row r="950" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C950" s="12"/>
+      <c r="C950" s="46"/>
     </row>
     <row r="951" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C951" s="12"/>
+      <c r="C951" s="46"/>
     </row>
     <row r="952" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C952" s="12"/>
+      <c r="C952" s="46"/>
     </row>
     <row r="953" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C953" s="12"/>
+      <c r="C953" s="46"/>
     </row>
     <row r="954" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C954" s="12"/>
+      <c r="C954" s="46"/>
     </row>
     <row r="955" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C955" s="12"/>
+      <c r="C955" s="46"/>
     </row>
     <row r="956" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C956" s="12"/>
+      <c r="C956" s="46"/>
     </row>
     <row r="957" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C957" s="12"/>
+      <c r="C957" s="46"/>
     </row>
     <row r="958" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C958" s="12"/>
+      <c r="C958" s="46"/>
     </row>
     <row r="959" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C959" s="12"/>
+      <c r="C959" s="46"/>
     </row>
     <row r="960" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C960" s="12"/>
+      <c r="C960" s="46"/>
     </row>
     <row r="961" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C961" s="12"/>
+      <c r="C961" s="46"/>
     </row>
     <row r="962" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C962" s="12"/>
+      <c r="C962" s="46"/>
     </row>
     <row r="963" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C963" s="12"/>
+      <c r="C963" s="46"/>
     </row>
     <row r="964" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C964" s="12"/>
+      <c r="C964" s="46"/>
     </row>
     <row r="965" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C965" s="12"/>
+      <c r="C965" s="46"/>
     </row>
     <row r="966" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C966" s="12"/>
+      <c r="C966" s="46"/>
     </row>
     <row r="967" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C967" s="12"/>
+      <c r="C967" s="46"/>
     </row>
     <row r="968" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C968" s="12"/>
+      <c r="C968" s="46"/>
     </row>
     <row r="969" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C969" s="12"/>
+      <c r="C969" s="46"/>
     </row>
     <row r="970" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C970" s="12"/>
+      <c r="C970" s="46"/>
     </row>
     <row r="971" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C971" s="12"/>
+      <c r="C971" s="46"/>
     </row>
     <row r="972" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C972" s="12"/>
+      <c r="C972" s="46"/>
     </row>
     <row r="973" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C973" s="12"/>
+      <c r="C973" s="46"/>
     </row>
     <row r="974" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C974" s="12"/>
+      <c r="C974" s="46"/>
     </row>
     <row r="975" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C975" s="12"/>
+      <c r="C975" s="46"/>
     </row>
     <row r="976" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C976" s="12"/>
+      <c r="C976" s="46"/>
     </row>
     <row r="977" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C977" s="12"/>
+      <c r="C977" s="46"/>
     </row>
     <row r="978" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C978" s="12"/>
+      <c r="C978" s="46"/>
     </row>
     <row r="979" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C979" s="12"/>
+      <c r="C979" s="46"/>
     </row>
     <row r="980" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C980" s="12"/>
+      <c r="C980" s="46"/>
     </row>
     <row r="981" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C981" s="12"/>
+      <c r="C981" s="46"/>
     </row>
     <row r="982" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C982" s="12"/>
+      <c r="C982" s="46"/>
     </row>
     <row r="983" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C983" s="12"/>
+      <c r="C983" s="46"/>
     </row>
     <row r="984" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C984" s="12"/>
+      <c r="C984" s="46"/>
     </row>
     <row r="985" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C985" s="12"/>
+      <c r="C985" s="46"/>
     </row>
     <row r="986" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C986" s="12"/>
+      <c r="C986" s="46"/>
     </row>
     <row r="987" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C987" s="12"/>
+      <c r="C987" s="46"/>
     </row>
     <row r="988" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C988" s="12"/>
+      <c r="C988" s="46"/>
     </row>
     <row r="989" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C989" s="12"/>
+      <c r="C989" s="46"/>
     </row>
     <row r="990" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C990" s="12"/>
+      <c r="C990" s="46"/>
     </row>
     <row r="991" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C991" s="12"/>
+      <c r="C991" s="46"/>
     </row>
     <row r="992" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C992" s="12"/>
+      <c r="C992" s="46"/>
     </row>
     <row r="993" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C993" s="12"/>
+      <c r="C993" s="46"/>
     </row>
     <row r="994" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C994" s="12"/>
+      <c r="C994" s="46"/>
     </row>
     <row r="995" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C995" s="12"/>
+      <c r="C995" s="46"/>
     </row>
     <row r="996" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C996" s="12"/>
-    </row>
-    <row r="997" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C997" s="12"/>
-    </row>
-    <row r="998" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C998" s="12"/>
-    </row>
-    <row r="999" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C999" s="12"/>
+      <c r="C996" s="46"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I999">
-    <sortCondition ref="A2:A999"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I996">
+    <sortCondition ref="A2:A996"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
